--- a/results/I3_N5_M2_T15_C150_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>662.6128370161098</v>
+        <v>500.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.267476848603721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.0659487818552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.7800000000093</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315.3199999999999</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.865489312505037</v>
+        <v>5.134510687494963</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.200658506961251</v>
+        <v>5.799341493038749</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.17182228993174</v>
+        <v>10.17182228993175</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,90 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000012</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.6799999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>145.1249999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>132.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.5899999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.8949999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>99.51000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>98.41000000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>94.89000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.94000000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>99.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000012</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1100000000012</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6100000000012</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000012</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>140.6799999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>145.1249999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>132.75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.5899999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>144.8949999999997</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.04000000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.61000000000115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.08000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1914,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1991,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2002,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2013,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2065,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2076,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2087,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2098,23 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
